--- a/設計書/クラス図/掲示板.xlsx
+++ b/設計書/クラス図/掲示板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\資料\卒業研究\バックアップ\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD918A-F9B8-4BEE-A27A-F35907A209B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82FFBFC-AD52-469C-9EA4-4556413FD04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17475494-BE22-4662-8296-BAB0C525C254}"/>
   </bookViews>
@@ -2338,15 +2338,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50182</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>63141</xdr:rowOff>
+      <xdr:colOff>32039</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247181</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>109552</xdr:rowOff>
+      <xdr:colOff>229038</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100480</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2363,7 +2363,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="340468" y="6449427"/>
+          <a:off x="322325" y="6113784"/>
           <a:ext cx="3970713" cy="1026125"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
@@ -3018,15 +3018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247181</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>50672</xdr:rowOff>
+      <xdr:colOff>229038</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>264019</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>128837</xdr:rowOff>
+      <xdr:rowOff>129677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3044,8 +3044,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4321764" y="6718172"/>
-          <a:ext cx="1763088" cy="2459415"/>
+          <a:off x="4293038" y="6590200"/>
+          <a:ext cx="1776695" cy="2864906"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3630,15 +3630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247181</xdr:colOff>
+      <xdr:colOff>229038</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>37634</xdr:rowOff>
+      <xdr:rowOff>37535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>187375</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>49799</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40629</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3656,8 +3656,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4350258" y="3473147"/>
-          <a:ext cx="1991732" cy="3431396"/>
+          <a:off x="4293038" y="3484678"/>
+          <a:ext cx="1990337" cy="3105522"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5823,6 +5823,406 @@
         <a:xfrm>
           <a:off x="9803459" y="8971657"/>
           <a:ext cx="848997" cy="223044"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242357</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>59197</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="図形グループ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B599E85B-51B0-40F5-BAC8-DA0EF2B04504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="335644" y="7384142"/>
+          <a:ext cx="3970713" cy="1020769"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="694267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="テキスト ボックス 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F89A715-3212-4B58-8642-94B5DA412E31}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="272748"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>cats.controller.BoardController</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   url </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>= "/Board/Read"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="テキスト ボックス 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BBC9C1-182D-42B3-8FD0-47CF8F351D83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2738059"/>
+            <a:ext cx="4538133" cy="309941"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t> # doGet(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Integer boardId,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>ModelAndView mav) : ModelAndView</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="テキスト ボックス 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6226067F-299A-4E92-8C51-FDD0F59A5214}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2651276"/>
+            <a:ext cx="4538133" cy="49591"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242357</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264019</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90615560-162A-4E05-AA22-DFD72524A093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="177" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4306357" y="7858071"/>
+          <a:ext cx="1763376" cy="1597035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242357</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>187375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E23107-3D60-481C-8D77-E2AE1F7BA971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4306357" y="3484678"/>
+          <a:ext cx="1977018" cy="4373393"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6156,8 +6556,8 @@
   </sheetPr>
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -8026,15 +8426,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AI2"/>
@@ -8048,6 +8439,15 @@
     <mergeCell ref="H4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/クラス図/掲示板.xlsx
+++ b/設計書/クラス図/掲示板.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82FFBFC-AD52-469C-9EA4-4556413FD04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C17BB0-D718-4AB4-A946-9DA8B485CFA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17475494-BE22-4662-8296-BAB0C525C254}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{17475494-BE22-4662-8296-BAB0C525C254}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="1" r:id="rId1"/>
+    <sheet name="掲示板コメント" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">掲示板!$A$1:$AP$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">掲示板コメント!$A$1:$AP$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>クラス図</t>
     <rPh sb="3" eb="4">
@@ -226,6 +228,26 @@
       <t>ミズキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cat's　掲示板コメント　クラス図</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Cat'sの掲示板コメント関連のクラス図</t>
+    <rPh sb="6" eb="9">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -694,8 +716,8 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>569872</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -711,7 +733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13774615" y="2458590"/>
-          <a:ext cx="3923975" cy="8141025"/>
+          <a:ext cx="3923975" cy="11657948"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -750,13 +772,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>114308</xdr:colOff>
+      <xdr:colOff>114307</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>141017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>262759</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -773,8 +795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10393371" y="3173142"/>
-          <a:ext cx="2482076" cy="7891733"/>
+          <a:off x="10300765" y="3157267"/>
+          <a:ext cx="3153297" cy="7891733"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -956,8 +978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="341013" y="3019058"/>
-          <a:ext cx="3970713" cy="1026125"/>
+          <a:off x="341769" y="2998647"/>
+          <a:ext cx="3980540" cy="998911"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1133,10 +1155,17 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t> # doGet(ModelAndView mav) : ModelAndView</a:t>
+              <a:t> @Controller</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t># doGet(ModelAndView mav) : ModelAndView</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -1223,8 +1252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6283375" y="3008262"/>
-          <a:ext cx="2730004" cy="1026125"/>
+          <a:off x="6299250" y="2987851"/>
+          <a:ext cx="2737564" cy="998911"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1387,6 +1416,13 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>@Service</a:t>
+            </a:r>
+          </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
@@ -1541,8 +1577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10463566" y="4865921"/>
-          <a:ext cx="1958889" cy="2367557"/>
+          <a:off x="10490780" y="4795617"/>
+          <a:ext cx="1963425" cy="2299522"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="695166"/>
         </a:xfrm>
@@ -1830,8 +1866,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19057130" y="1623154"/>
-          <a:ext cx="2532492" cy="1407340"/>
+          <a:off x="19132726" y="1643565"/>
+          <a:ext cx="2534003" cy="1366518"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="346961"/>
         </a:xfrm>
@@ -2001,13 +2037,13 @@
       <xdr:col>46</xdr:col>
       <xdr:colOff>807830</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>120687</xdr:rowOff>
+      <xdr:rowOff>120689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>155504</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>32196</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148951</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2024,10 +2060,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14124687" y="2914687"/>
-          <a:ext cx="3048817" cy="1544366"/>
+          <a:off x="14195747" y="2898814"/>
+          <a:ext cx="3051840" cy="1774512"/>
           <a:chOff x="338666" y="2386863"/>
-          <a:chExt cx="4538133" cy="346961"/>
+          <a:chExt cx="4538133" cy="411114"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2110,7 +2146,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="338666" y="2492873"/>
-            <a:ext cx="4538133" cy="240951"/>
+            <a:ext cx="4538133" cy="305104"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2141,6 +2177,19 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Repository</a:t>
+            </a:r>
+          </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -2363,8 +2412,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="322325" y="6113784"/>
-          <a:ext cx="3970713" cy="1026125"/>
+          <a:off x="323081" y="6007195"/>
+          <a:ext cx="3980540" cy="998910"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2540,10 +2589,17 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t> # doGet(</a:t>
+              <a:t> @Controller</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t># doGet(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -2645,8 +2701,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6069733" y="8964148"/>
-          <a:ext cx="3602301" cy="2157904"/>
+          <a:off x="6084852" y="8780452"/>
+          <a:ext cx="3612128" cy="2094404"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1416773"/>
         </a:xfrm>
@@ -2813,7 +2869,14 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>+ insert</a:t>
+              <a:t>@Service</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t> insert</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -3078,14 +3141,14 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>789232</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123568</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>141453</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>42399</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3102,10 +3165,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14106089" y="8469282"/>
-          <a:ext cx="3053364" cy="1551688"/>
+          <a:off x="14177149" y="7759442"/>
+          <a:ext cx="3056387" cy="1749683"/>
           <a:chOff x="338666" y="2386863"/>
-          <a:chExt cx="4538133" cy="346961"/>
+          <a:chExt cx="4538133" cy="413906"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3188,7 +3251,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="338666" y="2492873"/>
-            <a:ext cx="4538133" cy="240951"/>
+            <a:ext cx="4538133" cy="307896"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3219,6 +3282,19 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Repository</a:t>
+            </a:r>
+          </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -3322,8 +3398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18981282" y="7415033"/>
-          <a:ext cx="2529273" cy="1947993"/>
+          <a:off x="19056878" y="7272158"/>
+          <a:ext cx="2530784" cy="1893564"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="476127"/>
         </a:xfrm>
@@ -3514,13 +3590,13 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>141453</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>68729</xdr:rowOff>
+      <xdr:rowOff>69161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>112711</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>3620</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3538,8 +3614,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17480841" y="7299953"/>
-          <a:ext cx="1811462" cy="1023463"/>
+          <a:off x="17371120" y="7413994"/>
+          <a:ext cx="1812758" cy="498539"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3572,8 +3648,8 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>92605</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1340</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
@@ -3597,8 +3673,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9696980" y="8415090"/>
-          <a:ext cx="4427252" cy="762497"/>
+          <a:off x="9871605" y="7912533"/>
+          <a:ext cx="4464294" cy="1307387"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3748,15 +3824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>789321</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>136787</xdr:rowOff>
+      <xdr:colOff>778737</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>141542</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>61227</xdr:rowOff>
+      <xdr:colOff>130958</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>74085</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3773,10 +3849,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14106178" y="6523073"/>
-          <a:ext cx="3053364" cy="1557297"/>
+          <a:off x="14166654" y="5968960"/>
+          <a:ext cx="3056387" cy="1645750"/>
           <a:chOff x="338666" y="2386863"/>
-          <a:chExt cx="4538133" cy="346961"/>
+          <a:chExt cx="4538133" cy="407454"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3859,7 +3935,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="338666" y="2492873"/>
-            <a:ext cx="4538133" cy="240951"/>
+            <a:ext cx="4538133" cy="301444"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3900,6 +3976,19 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
+              <a:t>@Repository</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>JpaRepository&lt;StudentTblEntity,Integer&gt;,</a:t>
             </a:r>
           </a:p>
@@ -3975,12 +4064,12 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>92605</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>15286</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>789321</xdr:colOff>
+      <xdr:colOff>778737</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>128837</xdr:rowOff>
     </xdr:to>
@@ -4000,8 +4089,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9696980" y="6524036"/>
-          <a:ext cx="4427341" cy="2653551"/>
+          <a:off x="9871605" y="6113589"/>
+          <a:ext cx="4453799" cy="3106331"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4058,8 +4147,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19020294" y="3538064"/>
-          <a:ext cx="2529273" cy="3213515"/>
+          <a:off x="19095890" y="3504046"/>
+          <a:ext cx="2530784" cy="3122801"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="785412"/>
         </a:xfrm>
@@ -4318,15 +4407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>141542</xdr:colOff>
+      <xdr:colOff>130958</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110532</xdr:rowOff>
+      <xdr:rowOff>111004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>151723</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>17566</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38756</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4344,8 +4433,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17480930" y="3609512"/>
-          <a:ext cx="1850385" cy="2861727"/>
+          <a:off x="17360625" y="3645837"/>
+          <a:ext cx="1862265" cy="2467752"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4402,8 +4491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="309173" y="8767373"/>
-          <a:ext cx="3970713" cy="1028079"/>
+          <a:off x="309929" y="8588212"/>
+          <a:ext cx="3980540" cy="1000865"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -4579,10 +4668,17 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t> # doGet(</a:t>
+              <a:t> @Controller</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t># doGet(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -4719,14 +4815,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>92605</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>32196</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>481668</xdr:colOff>
+      <xdr:colOff>481667</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>128837</xdr:rowOff>
+      <xdr:rowOff>128474</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4744,8 +4840,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9696980" y="4318446"/>
-          <a:ext cx="5971771" cy="4859141"/>
+          <a:off x="9664642" y="4593951"/>
+          <a:ext cx="5962951" cy="4526437"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4802,8 +4898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="329163" y="4753429"/>
-          <a:ext cx="3970713" cy="1020769"/>
+          <a:off x="329919" y="4683125"/>
+          <a:ext cx="3980540" cy="993555"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -4979,10 +5075,17 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t> # doGet(</a:t>
+              <a:t> @Controller</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t># doGet(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -5202,8 +5305,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10459356" y="3456216"/>
-          <a:ext cx="1932215" cy="1242788"/>
+          <a:off x="10486570" y="3422198"/>
+          <a:ext cx="1936751" cy="1211038"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="365088"/>
         </a:xfrm>
@@ -5356,16 +5459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>58797</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152873</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>148755</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>41987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>77439</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>26458</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95492</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5382,8 +5485,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10509083" y="9478302"/>
-          <a:ext cx="2041570" cy="1690896"/>
+          <a:off x="11208338" y="8852612"/>
+          <a:ext cx="2206037" cy="1641005"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="496090"/>
         </a:xfrm>
@@ -5583,8 +5686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9347940" y="12417442"/>
-          <a:ext cx="1958889" cy="1332577"/>
+          <a:off x="9372130" y="12138496"/>
+          <a:ext cx="1963425" cy="1291755"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="390509"/>
         </a:xfrm>
@@ -5796,14 +5899,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>92605</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>128120</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>86812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>58797</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>41408</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>148755</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>128837</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5820,9 +5923,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9803459" y="8971657"/>
-          <a:ext cx="848997" cy="223044"/>
+        <a:xfrm flipV="1">
+          <a:off x="9696980" y="8976812"/>
+          <a:ext cx="1511358" cy="200775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5879,8 +5982,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="335644" y="7384142"/>
-          <a:ext cx="3970713" cy="1020769"/>
+          <a:off x="336400" y="7241267"/>
+          <a:ext cx="3980540" cy="993555"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6056,7 +6159,14 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>@Controller</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
               <a:t> # doGet(</a:t>
@@ -6223,6 +6333,4031 @@
         <a:xfrm flipV="1">
           <a:off x="4306357" y="3484678"/>
           <a:ext cx="1977018" cy="4373393"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>209471</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="87" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C618D93F-F8BF-4735-A188-B129E6A28FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14245167" y="11922125"/>
+          <a:ext cx="3056387" cy="1735667"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="413906"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="テキスト ボックス 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9410AB71-7CE5-49A2-95E8-442F288F6433}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.repository.BoardSpecification</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="テキスト ボックス 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE92069-A0AC-4844-B3A7-631753248B7F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="307896"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Specification&lt;BoardCommentTblEntity&gt; IdEqules(Integer boardId)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+save(S entity)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Specification&lt;BoardTblEntity&gt; CategorySelect(Integer categoryId)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>92605</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69690C71-85AD-4BF3-930A-BA945FB6DBC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="177" idx="3"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9617605" y="8940977"/>
+          <a:ext cx="4516918" cy="3641142"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>209471</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>69161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>112711</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>74104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E92C77-1998-43EF-A6D0-1BD345070EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="190" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17248638" y="7371661"/>
+          <a:ext cx="1755323" cy="5561193"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>280048</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>162599</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01570063-2913-42C0-8385-01F6186A3D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8073230" y="7444895"/>
+          <a:ext cx="3057551" cy="1886414"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>667564</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>358205</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1087F4-427E-4794-AC76-A46A0B415A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18657114" y="1301750"/>
+          <a:ext cx="3373641" cy="8303846"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>358205</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>569872</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4500B1AC-8AA2-43B0-B48C-7164B74363DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13744005" y="2413000"/>
+          <a:ext cx="3894667" cy="7937500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>56581</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>61648</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>134651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2B39FA-2FA4-4A18-AB36-0A689ECCFAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447490" y="4459018"/>
+          <a:ext cx="2845249" cy="2291178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>168313</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>283073</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298ABE55-60B8-47EC-AE3A-7A17C52A44D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5982771" y="2631807"/>
+          <a:ext cx="3894157" cy="2578254"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>113974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF6B01A-7D00-46F8-98C9-EAEBEDECEF0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="113974" y="2508879"/>
+          <a:ext cx="5121848" cy="3382956"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50727</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="図形グループ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E2D8EB-F90A-4C9A-BC47-87D79E0C82E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="339363" y="2959681"/>
+          <a:ext cx="4658169" cy="1301874"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="889550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79012114-8810-422F-9A4F-37A087B928D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="272748"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>cats.controller.BoardController</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   url </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>= "/BoardComment/Read"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF6E778-3566-40C6-BBCD-8CEA32CDAC1E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2738059"/>
+            <a:ext cx="4538133" cy="505224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Controller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t># doGet(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Integer boardId,String boardTitle,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ModelAndView mav) </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>: ModelAndView</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FD60A1-E4C1-4356-9E02-AB292996E9D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2651276"/>
+            <a:ext cx="4538133" cy="49591"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>187374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="図形グループ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23844E7A-6E99-480F-9DAC-1E9F4219510C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6248738" y="2948887"/>
+          <a:ext cx="3276262" cy="1692387"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="1156125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE714261-36B7-4C8B-8009-64C862DAC07B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="272748"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>cats.controller.BoardCommentService</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBDBFC7-2BFE-4302-8CE6-1782CEADD0B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2738059"/>
+            <a:ext cx="4538133" cy="771799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Service</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>BoardCommentDto insert(BoardCommentDto dto)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>BoardCommentTblEntity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>       </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>createBoardComment(BoardCommentDto dto)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>List&lt;BoardCommentDto&gt; getAllList(Integer boardId)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A2D940-1F6F-4FFA-8B50-8126638DAF62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2651276"/>
+            <a:ext cx="4538133" cy="49591"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>187374</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27ADF39-47EE-4A2F-92F1-49535298658F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5033003" y="3419664"/>
+          <a:ext cx="1259552" cy="10795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>286160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43511</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0D332D-4776-46F3-943C-1C844480B5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="3420741"/>
+          <a:ext cx="1152069" cy="1460315"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>188559</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>834571</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90718</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92725668-579B-45B6-84BC-64BB13DFCFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18961468" y="1578624"/>
+          <a:ext cx="2493285" cy="1733276"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="431789"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC1E78B-EB0A-44F5-B014-7924F29B8E30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.entity.BoardCommentTblEntity</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53CB7C6-3F8B-45FF-9700-BB5832ABDE7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="325779"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Entity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Table(name="board_comment")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- boardCommentId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>nteger</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardComment : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardCommentName : String</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>771544</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>245936</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141053</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B968D74-9ED6-4BD9-B330-DA1058B01FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14002635" y="2640895"/>
+          <a:ext cx="3168937" cy="1529522"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="346961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEFD368-0E7E-48A1-87AA-DDF200EC0416}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.repository.BoardCommentRepository</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82936E42-B849-46A0-B1F6-D48BB92FBA9F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="240951"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Repository</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>paRepository&lt;BoardCommentTblEntity,Integer&gt;,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>JpaSpecificationExecutor&lt;BoardCommentTblEntity&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+save(S entity)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>245936</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>188559</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3D2D80-B77F-4D55-98E5-FEF7703E1701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17263936" y="1805596"/>
+          <a:ext cx="1793194" cy="1091580"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>771544</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37573</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69FBB02-4D5B-4160-A2EA-790C7A83E7FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9579429" y="2897176"/>
+          <a:ext cx="4508972" cy="587540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>112711</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>791412</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>37597</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D95A76-4A2E-41F1-A084-6717500ADE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18885620" y="7311124"/>
+          <a:ext cx="2525974" cy="1928200"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="476127"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="テキスト ボックス 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77542ECC-43A0-4453-B9BC-BA11A8C39484}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.entity.BoardTblEntity</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="テキスト ボックス 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CD9FA5-F49A-44AC-8450-2832F9F89F25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="370117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Entity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Table(name="board")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- boardId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>nteger</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- studentId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardTitle : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- categoryId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardDate : Date</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>141453</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>112711</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>3620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABA3BB6-382A-4909-9255-2068C7779D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17210253" y="7402979"/>
+          <a:ext cx="1812758" cy="1046141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>777775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>129996</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>147161</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F5ADAE-F186-47FC-BD50-D3FAAAF01850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14008866" y="4547148"/>
+          <a:ext cx="3046766" cy="1730649"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="389745"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="テキスト ボックス 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C498E295-A515-4B59-A6D9-B0A9A6FBC6D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.repository.StudentRepository</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="テキスト ボックス 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628EF666-9886-4E80-805B-F2F1AAE8CF6F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="283735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Repository</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>JpaRepository&lt;StudentTblEntity,Integer&gt;,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>JpaSpecificationExecutor&lt;StudentTblEntity&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>getId(Integer studentId)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+save(S entity)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>268139</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>26090</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28139</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50A81E3-AE24-479A-B9F8-BB34DD7FF0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041048" y="3786429"/>
+          <a:ext cx="2528860" cy="3180528"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="785412"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="テキスト ボックス 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5900D0BC-A64B-449B-A4A7-17E3AA71A689}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.entity.StudentTblEntity</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="テキスト ボックス 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CD8DE1-CE18-4443-88A0-97DB4F32B41E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="679402"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Entity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Table(name="student")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- studentId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>nteger</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- studentName : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- studentSex : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- hobbyId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- schoolId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- courseId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- grade : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- age : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- birthplace : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- selfIntroduction : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- password : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- imagePath : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- point : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- lastLog : Date</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- continuousLogin : Integer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>129996</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>268139</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89FBA2B-E847-4DC7-87B1-126C4440A20E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17055632" y="3968568"/>
+          <a:ext cx="1985416" cy="778303"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>286160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>143774</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42009</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBBBA83-9941-4C13-A223-F5F5209817EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10677069" y="4673435"/>
+          <a:ext cx="2420705" cy="1822483"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="540217"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="テキスト ボックス 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1344C69-2550-4A9F-B990-64F2DC60F378}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="123085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.dto.BoardCommentDto</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="テキスト ボックス 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF78AFFF-CFCB-4261-A102-62D673D9CA34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="401077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- boardId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>nteger</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- commentId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- comment : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- commentName : String</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2993</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>108614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>130369</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E8C5C1-85CF-43BE-8C4F-94C2E1183DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8373448" y="7693978"/>
+          <a:ext cx="2528346" cy="1314846"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="390509"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="テキスト ボックス 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7240700B-B39F-4C53-9F19-B1E00827AB00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="123085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.beans.BoardCommentBeans</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="テキスト ボックス 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD51114-0CA8-499F-98BF-88E0E32E200A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="251369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- boardComment : String</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50474</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="図形グループ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75C20A3-AA01-4170-936C-ACCCEE3372C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="339110" y="4379620"/>
+          <a:ext cx="4679767" cy="1280220"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="874812"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="テキスト ボックス 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BA3ACB-ADA0-4500-9AF6-92D2BBBFC58B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="272748"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>cats.controller.BoardController</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   url </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>= "/BoardComment/Insert"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="テキスト ボックス 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF304B72-037D-409C-926D-30969F787079}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2738059"/>
+            <a:ext cx="4538133" cy="490486"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Controller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t># doGet(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>BoardCommentBeans boardcommetbeans,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>String boardTitle,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ModelAndView mav) : ModelAndView</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="テキスト ボックス 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7D9EA7-B00C-4F03-B9E8-EA1726F0856E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2651276"/>
+            <a:ext cx="4538133" cy="49591"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>776111</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>138064</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>43855</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA24DAC2-E92F-4394-8DD9-65BD1FB9E11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14007202" y="8346562"/>
+          <a:ext cx="3056498" cy="1707202"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="413906"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="テキスト ボックス 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9745FB4C-001A-4B4D-87AD-2B35FFB07022}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.repository.BoardSpecification</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="テキスト ボックス 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5AD0E6-40CE-4B63-88D0-321BDF951447}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="307896"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Specification&lt;BoardCommentTblEntity&gt; IdEqules(Integer boardId)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+save(S entity)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Specification&lt;BoardTblEntity&gt; CategorySelect(Integer categoryId)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>138064</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>188559</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>138856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93159112-75AA-449B-87DA-7769FAADD3FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17156064" y="1805596"/>
+          <a:ext cx="1901066" cy="6842260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113446</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>108614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B2A5FE-22DA-4C77-A84F-92A47C6A4DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9092869" y="4527468"/>
+          <a:ext cx="545577" cy="3166510"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6556,8 +10691,8 @@
   </sheetPr>
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView zoomScale="24" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AZ80" sqref="AZ80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -8426,6 +12561,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AI2"/>
@@ -8439,6 +12583,1898 @@
     <mergeCell ref="H4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38352D17-0DAB-4865-9306-8A9611895F09}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AP61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X15" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE28" sqref="BE28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="3.83203125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="3.83203125" style="17" customWidth="1"/>
+    <col min="7" max="42" width="3.83203125" style="4" customWidth="1"/>
+    <col min="43" max="46" width="3.6640625" style="4" customWidth="1"/>
+    <col min="47" max="16384" width="12.08203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" spans="1:42" ht="14" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="31"/>
+    </row>
+    <row r="3" spans="1:42" ht="14" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="32">
+        <v>43725</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="31"/>
+    </row>
+    <row r="4" spans="1:42" ht="14" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="31"/>
+    </row>
+    <row r="5" spans="1:42" ht="14" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="31"/>
+    </row>
+    <row r="6" spans="1:42" ht="14" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="32">
+        <v>43801</v>
+      </c>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="31"/>
+    </row>
+    <row r="7" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="18"/>
+    </row>
+    <row r="8" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="19"/>
+    </row>
+    <row r="9" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AI9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP9" s="19"/>
+    </row>
+    <row r="10" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AI10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP10" s="19"/>
+    </row>
+    <row r="11" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="19"/>
+    </row>
+    <row r="12" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP12" s="19"/>
+    </row>
+    <row r="13" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="20"/>
+    </row>
+    <row r="14" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+    </row>
+    <row r="15" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+    </row>
+    <row r="16" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+    </row>
+    <row r="17" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+    </row>
+    <row r="18" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+    </row>
+    <row r="19" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+    </row>
+    <row r="20" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+    </row>
+    <row r="21" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+    </row>
+    <row r="22" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+    </row>
+    <row r="23" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+    </row>
+    <row r="24" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+    </row>
+    <row r="25" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+    </row>
+    <row r="26" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+    </row>
+    <row r="27" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+    </row>
+    <row r="28" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+    </row>
+    <row r="29" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+    </row>
+    <row r="31" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+    </row>
+    <row r="32" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+    </row>
+    <row r="33" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+    </row>
+    <row r="34" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+    </row>
+    <row r="35" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+    </row>
+    <row r="36" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+    </row>
+    <row r="37" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+    </row>
+    <row r="38" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+    </row>
+    <row r="39" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+    </row>
+    <row r="40" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+    </row>
+    <row r="41" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+    </row>
+    <row r="42" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+    </row>
+    <row r="43" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:42" ht="12.75" customHeight="1">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="50" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A51" s="16"/>
+    </row>
+    <row r="52" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A52" s="16"/>
+    </row>
+    <row r="53" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A53" s="16"/>
+    </row>
+    <row r="54" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A54" s="16"/>
+    </row>
+    <row r="55" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A55" s="16"/>
+    </row>
+    <row r="56" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A56" s="16"/>
+    </row>
+    <row r="57" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A57" s="16"/>
+    </row>
+    <row r="58" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A58" s="16"/>
+    </row>
+    <row r="59" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A59" s="16"/>
+    </row>
+    <row r="60" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A60" s="16"/>
+    </row>
+    <row r="61" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A61" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="H4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AP4"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:AI5"/>
@@ -8446,8 +14482,16 @@
     <mergeCell ref="AM5:AP5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/クラス図/掲示板.xlsx
+++ b/設計書/クラス図/掲示板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D56C245-3059-40E0-9D9C-4505EC0283E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9078C4-D195-4D30-9C1A-2CDC4777E7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="700" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="3" xr2:uid="{17475494-BE22-4662-8296-BAB0C525C254}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{17475494-BE22-4662-8296-BAB0C525C254}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="1" r:id="rId1"/>
@@ -17816,6 +17816,151 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>605465</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>29535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>398721</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>118140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="四角形: 角を丸くする 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F292DF-9AAA-49A8-A5C0-2689080B5C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21722907" y="8476512"/>
+          <a:ext cx="3455581" cy="2850116"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>555706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="四角形: 角を丸くする 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D697EB3C-598B-4F6B-B54A-6C72A90A676B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19997912" y="1407615"/>
+          <a:ext cx="7381794" cy="5689443"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>539824</xdr:colOff>
       <xdr:row>54</xdr:row>
@@ -17882,16 +18027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>667564</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>358205</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17906,8 +18051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18657114" y="1301750"/>
-          <a:ext cx="3373641" cy="8303846"/>
+          <a:off x="21505333" y="13144499"/>
+          <a:ext cx="6519334" cy="7514167"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18215,8 +18360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="579559" y="3685831"/>
-          <a:ext cx="4500171" cy="1334000"/>
+          <a:off x="566905" y="3696184"/>
+          <a:ext cx="4310362" cy="1278783"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="889550"/>
         </a:xfrm>
@@ -18532,8 +18677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8381331" y="7137965"/>
-          <a:ext cx="2598933" cy="1340021"/>
+          <a:off x="8039673" y="7003373"/>
+          <a:ext cx="2485048" cy="1284803"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="891857"/>
         </a:xfrm>
@@ -18842,496 +18987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>188559</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>135442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90718</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="図形グループ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDE1553-2BE5-4D45-A0C2-3320870B1F0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20729429" y="1543485"/>
-          <a:ext cx="2656760" cy="1777450"/>
-          <a:chOff x="338666" y="2386863"/>
-          <a:chExt cx="4538133" cy="431789"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="テキスト ボックス 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C85BDE-C21E-4450-B1B4-F2740C50A492}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2386863"/>
-            <a:ext cx="4538133" cy="89956"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>c</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>）　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>cats.entity.BoardCommentTblEntity</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E280E67-E5B9-4B81-8949-3BB264A384B5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2492873"/>
-            <a:ext cx="4538133" cy="325779"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>@Data</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>@Entity</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>@Table(name="board_comment")</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>- boardCommentId</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> : I</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>nteger</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- boardId : Integer</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- boardComment : String</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- boardCommentName : String</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>221211</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66259</xdr:rowOff>
+      <xdr:colOff>902583</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>626936</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>141053</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="図形グループ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73629AF5-22D3-476B-8387-88EF00ADF314}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24406428" y="4621694"/>
-          <a:ext cx="3138986" cy="1565663"/>
-          <a:chOff x="338666" y="2386863"/>
-          <a:chExt cx="4538133" cy="346961"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FE8672-07FF-43D1-A569-55D8450E0C31}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2386863"/>
-            <a:ext cx="4538133" cy="89956"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>i</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>）　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>cats.repository.BoardCommentRepository</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキスト ボックス 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32D7A0C-199E-4475-A5AF-E0E73A44301B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2492873"/>
-            <a:ext cx="4538133" cy="240951"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>@Repository</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>paRepository&lt;BoardCommentTblEntity,Integer&gt;,</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>JpaSpecificationExecutor&lt;BoardCommentTblEntity&gt;</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>+save(S entity)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>188559</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>155477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>626936</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104185</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDE9A09-CEC6-44CA-BC4E-91006A4904B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="19" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19323226" y="1764144"/>
-          <a:ext cx="6957710" cy="3166041"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>112711</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>791412</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>37597</xdr:rowOff>
+      <xdr:colOff>664062</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47605</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19348,8 +19013,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20653581" y="7420555"/>
-          <a:ext cx="2500874" cy="1976390"/>
+          <a:off x="24715083" y="12838415"/>
+          <a:ext cx="2539604" cy="1893565"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="476127"/>
         </a:xfrm>
@@ -19415,7 +19080,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>cats.entity.BoardTblEntity</a:t>
+              <a:t>cats.entity.hobbyTblEntity</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -19483,14 +19148,14 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>@Table(name="board")</a:t>
+              <a:t>@Table(name="hobby")</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>- boardId</a:t>
+              <a:t>- hobbyId</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -19506,28 +19171,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- studentId : Integer</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- boardTitle : String</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- categoryId : Integer</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- boardDate : Date</a:t>
+              <a:t>- hobbyName : String</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -19563,8 +19207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17014342" y="14058599"/>
-          <a:ext cx="2637246" cy="1761550"/>
+          <a:off x="16521987" y="13634115"/>
+          <a:ext cx="2682110" cy="1685626"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="389745"/>
         </a:xfrm>
@@ -19785,16 +19429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>268139</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80338</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>798055</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>48217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>26090</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28139</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>556006</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>2368</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19811,8 +19455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20809009" y="3807512"/>
-          <a:ext cx="2491211" cy="3260844"/>
+          <a:off x="24610555" y="15208842"/>
+          <a:ext cx="2536076" cy="3129151"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="785412"/>
         </a:xfrm>
@@ -20155,8 +19799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16657913" y="445091"/>
-          <a:ext cx="2107608" cy="3306330"/>
+          <a:off x="16150603" y="480753"/>
+          <a:ext cx="2152472" cy="3274119"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="966244"/>
         </a:xfrm>
@@ -20425,8 +20069,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16840729" y="9324616"/>
-          <a:ext cx="2390614" cy="3531960"/>
+          <a:off x="16333419" y="9100295"/>
+          <a:ext cx="2435478" cy="3380113"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1022748"/>
         </a:xfrm>
@@ -20728,8 +20372,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="572796" y="5353906"/>
-          <a:ext cx="4486402" cy="1468090"/>
+          <a:off x="560142" y="5295238"/>
+          <a:ext cx="4296593" cy="1405970"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="978306"/>
         </a:xfrm>
@@ -21051,311 +20695,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>292960</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>18023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>579804</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>112876</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="図形グループ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B962D2CA-F9A4-4E98-A00B-4118CDC651B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20833830" y="9708675"/>
-          <a:ext cx="3020104" cy="1751375"/>
-          <a:chOff x="338666" y="2386863"/>
-          <a:chExt cx="4538133" cy="413906"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="テキスト ボックス 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593A8E8E-79AE-4B52-A471-1D6E526436F9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2386863"/>
-            <a:ext cx="4538133" cy="89956"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>c</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>）　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>cats.repository.BoardSpecification</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="テキスト ボックス 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32966AF2-BC76-4CFD-AC2F-7B255466BAE2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2492873"/>
-            <a:ext cx="4538133" cy="307896"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Specification&lt;BoardCommentTblEntity&gt; IdEqules(Integer boardId)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>+save(S entity)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Specification&lt;BoardTblEntity&gt; CategorySelect(Integer categoryId)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>188559</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>579804</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>42688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4925AA67-D1F5-491A-8081-7E7922FE778B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="3"/>
-          <a:endCxn id="19" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19017689" y="1797658"/>
-          <a:ext cx="3165919" cy="8170356"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
@@ -21688,10 +21027,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>141111</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>776112</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>77611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1822936" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -21707,7 +21046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19051411" y="395111"/>
+          <a:off x="22027445" y="12015611"/>
           <a:ext cx="1822936" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21792,8 +21131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14454878" y="4343978"/>
-          <a:ext cx="1864806" cy="1249184"/>
+          <a:off x="13887749" y="4326723"/>
+          <a:ext cx="1924625" cy="1193966"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="360975"/>
         </a:xfrm>
@@ -21971,8 +21310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14465775" y="894505"/>
-          <a:ext cx="1862532" cy="1217432"/>
+          <a:off x="13898646" y="969278"/>
+          <a:ext cx="1922351" cy="1215132"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="360975"/>
         </a:xfrm>
@@ -22150,8 +21489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8370998" y="4136589"/>
-          <a:ext cx="2598933" cy="1133646"/>
+          <a:off x="8029340" y="4126236"/>
+          <a:ext cx="2485048" cy="1085331"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="753023"/>
         </a:xfrm>
@@ -22450,8 +21789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7983429" y="2161025"/>
-          <a:ext cx="3349350" cy="1647823"/>
+          <a:off x="7654425" y="2233498"/>
+          <a:ext cx="3210157" cy="1578801"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="891857"/>
         </a:xfrm>
@@ -22778,8 +22117,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7778665" y="8787527"/>
-          <a:ext cx="3576390" cy="2751781"/>
+          <a:off x="7462316" y="8583913"/>
+          <a:ext cx="3424542" cy="2634444"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1484768"/>
         </a:xfrm>
@@ -23159,8 +22498,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8295467" y="5566747"/>
-          <a:ext cx="2759356" cy="1106996"/>
+          <a:off x="7953809" y="5494274"/>
+          <a:ext cx="2645471" cy="1065583"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="740656"/>
         </a:xfrm>
@@ -23577,8 +22916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14446283" y="2749645"/>
-          <a:ext cx="1867029" cy="1387898"/>
+          <a:off x="13879154" y="2794509"/>
+          <a:ext cx="1926848" cy="1332681"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="401090"/>
         </a:xfrm>
@@ -23822,8 +23161,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16655072" y="3892826"/>
-          <a:ext cx="2101835" cy="4047663"/>
+          <a:off x="16147762" y="3889375"/>
+          <a:ext cx="2146699" cy="3882011"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1165287"/>
         </a:xfrm>
@@ -24368,8 +23707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10683555" y="13968801"/>
-          <a:ext cx="2920275" cy="2193280"/>
+          <a:off x="10240665" y="13551219"/>
+          <a:ext cx="2806389" cy="2096650"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="528111"/>
         </a:xfrm>
@@ -24796,8 +24135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13562481" y="16650194"/>
-          <a:ext cx="2681346" cy="2241376"/>
+          <a:off x="13005705" y="16115276"/>
+          <a:ext cx="2730812" cy="2151647"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="495400"/>
         </a:xfrm>
@@ -25048,14 +24387,14 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>676047</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>112045</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>30981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>582203</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>54880</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>135943</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -25072,8 +24411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16661482" y="16594436"/>
-          <a:ext cx="2639417" cy="1765009"/>
+          <a:off x="16154172" y="16461606"/>
+          <a:ext cx="2684281" cy="1692462"/>
           <a:chOff x="338666" y="2386863"/>
           <a:chExt cx="4538133" cy="389745"/>
         </a:xfrm>
@@ -25404,13 +24743,13 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>36888</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66413</xdr:rowOff>
+      <xdr:rowOff>66436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>676047</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>150738</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>68068</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25428,8 +24767,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9599241" y="4791560"/>
-          <a:ext cx="5663130" cy="12354766"/>
+          <a:off x="10737314" y="4606010"/>
+          <a:ext cx="5665116" cy="12323335"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -25486,8 +24825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="582554" y="7257235"/>
-          <a:ext cx="4500170" cy="1334000"/>
+          <a:off x="569900" y="7115740"/>
+          <a:ext cx="4310361" cy="1278783"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="889550"/>
         </a:xfrm>
@@ -25788,8 +25127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="532294" y="9076904"/>
-          <a:ext cx="4845019" cy="1478487"/>
+          <a:off x="519640" y="8859486"/>
+          <a:ext cx="4642555" cy="1416367"/>
           <a:chOff x="338666" y="2257692"/>
           <a:chExt cx="4538133" cy="985591"/>
         </a:xfrm>
@@ -26102,8 +25441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="658493" y="11208434"/>
-          <a:ext cx="4494189" cy="1334000"/>
+          <a:off x="633185" y="10901287"/>
+          <a:ext cx="4317034" cy="1278783"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="889550"/>
         </a:xfrm>
@@ -26433,8 +25772,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="686930" y="13004026"/>
-          <a:ext cx="4500171" cy="1333999"/>
+          <a:off x="661622" y="12620955"/>
+          <a:ext cx="4310361" cy="1278782"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="889550"/>
         </a:xfrm>
@@ -26764,8 +26103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="732202" y="14796525"/>
-          <a:ext cx="4493486" cy="1334001"/>
+          <a:off x="706894" y="14344433"/>
+          <a:ext cx="4303676" cy="1278783"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="889550"/>
         </a:xfrm>
@@ -27066,8 +26405,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="796786" y="16537609"/>
-          <a:ext cx="4500171" cy="1334001"/>
+          <a:off x="771478" y="16009593"/>
+          <a:ext cx="4310361" cy="1278783"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="889550"/>
         </a:xfrm>
@@ -28070,6 +27409,1729 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>810639</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>94574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>577672</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>83290</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="137" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A862EB9C-9A7A-4811-A335-FCFC3B46B509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21845014" y="14302699"/>
+          <a:ext cx="2545158" cy="1893716"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="476127"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="テキスト ボックス 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F337B9-356D-4E7E-AA14-8A8505F0BAC3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.entity.courseTblEntity</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="テキスト ボックス 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F2E9B6-64E6-4319-9B0B-4C2C90ED8505}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="370117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Entity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Table(name="course")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- courseId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>nteger</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- schoolId : Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- courseName : String</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>770107</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>135105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>537141</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="141" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14D5DFE-EEF7-406A-85F7-379642BA6ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21804482" y="17200730"/>
+          <a:ext cx="2545159" cy="1893717"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="476127"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="テキスト ボックス 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B27E7B3-496D-46AA-8454-0F07E087C7CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.entity.schoolTblEntity</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="テキスト ボックス 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8381CADC-9684-498A-B051-4F660FCEFC72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="370117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Entity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>@Table(name="school")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- schoolId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>nteger</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- schoolName : String</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>582203</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>68068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>770107</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>155700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線コネクタ 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7CC7A6-D548-4023-B9ED-2FA1F15FDCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="1"/>
+          <a:endCxn id="129" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19064756" y="16929345"/>
+          <a:ext cx="2944074" cy="736142"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>258392</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>810639</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>39362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2569AF-2CAA-4BA1-8D58-AD408EF8B525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="1"/>
+          <a:endCxn id="126" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15984775" y="15706391"/>
+          <a:ext cx="6064587" cy="869992"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>241221</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>126972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>798055</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>78901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456FD087-207D-4625-97D2-6069BB2D2EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+          <a:endCxn id="117" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13319519" y="15042717"/>
+          <a:ext cx="11473430" cy="2221716"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>21805</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>79620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>902583</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>97677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直線コネクタ 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC09F464-86AF-4F64-9735-7F237DA5829D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="1"/>
+          <a:endCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19423082" y="13211960"/>
+          <a:ext cx="5474395" cy="828696"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>818259</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>579737</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110844</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="179" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A176102-FB8E-4A66-B2A6-D0B5DEBE7A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20000551" y="1793318"/>
+          <a:ext cx="2539603" cy="2365651"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="593430"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="テキスト ボックス 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176A84CA-FD72-44A5-8C7D-858FB84A1215}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.config.ConfigBase</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="テキスト ボックス 181">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9596A1BC-07CF-43A3-9158-4F55BC200BD8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="487420"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- config : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Properties</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ConfigBase()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>String getProperty(String paramName)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Float getProperty(String paramName,Float defaultVal)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Integer getProperty(String paramName,Integer defaultVal)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>String getConfigName()</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>715986</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>123425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89123</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="183" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37935100-5225-46D9-BC6C-2C7E1FE0A9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23602444" y="3045173"/>
+          <a:ext cx="3111606" cy="3314575"/>
+          <a:chOff x="338666" y="2386863"/>
+          <a:chExt cx="4538133" cy="833459"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="テキスト ボックス 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43562A9E-E951-4D4B-8E4F-EE1F86F945C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2386863"/>
+            <a:ext cx="4538133" cy="89956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.config.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AppSettingProperty</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="テキスト ボックス 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C9FDAC-E18F-452B-B301-8E09DECDCFA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="727449"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- prop : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AppSettingProperty</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- CONFIG_NAME = "app.properties" : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- CATS_UPLOAD_DIR = "cats.upload.directory"</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- CATS_UPLOAD_WK_DIR = "cats.upload.work.directory" : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- CATS_PROFILE_IMG_PREFIX = "cats.profile.img.prefix" : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AppSettingProperty getInstance()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>@Override</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+String getConfigName()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ String getCatsUploadDirectory()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+String getCatsUploadWorkDirectory()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+String getCatsProfileImgPrefix()</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>579737</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>715986</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線コネクタ 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EA41B9-9FB3-4EAF-A99F-AD87D351BE32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="184" idx="1"/>
+          <a:endCxn id="180" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="22414825" y="1917928"/>
+          <a:ext cx="1060898" cy="1229157"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>704459</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1979196" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE390A3-7C19-4A65-9B31-530D3EEE9950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20573814" y="245806"/>
+          <a:ext cx="1979196" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Config</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>925592</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>861016</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>96707</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="192" name="図形グループ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7B4CA2-BCF1-4B6A-B485-AF5A43F4877A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21953617" y="9128125"/>
+          <a:ext cx="2719899" cy="1207957"/>
+          <a:chOff x="338666" y="2353733"/>
+          <a:chExt cx="4538133" cy="360975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="テキスト ボックス 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70773164-0816-4127-B313-0E7CF5E5EEAA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4538133" cy="123085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>）　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>cats.utiles.FileUtiles</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="テキスト ボックス 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EBE5B9-B391-4A94-A714-3801694216F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2492873"/>
+            <a:ext cx="4538133" cy="221835"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>makeDir(String dir)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>String getFileNameFromPath(String path)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>575492</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>73837</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1794274" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="正方形/長方形 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E6A4E9-58B3-4C9A-9BA5-C6284FE4288D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21692934" y="7546163"/>
+          <a:ext cx="1794274" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Utiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28375,7 +29437,7 @@
   </sheetPr>
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ35" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="AJ36" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AR81" sqref="AR81"/>
     </sheetView>
   </sheetViews>
@@ -30245,15 +31307,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AI2"/>
@@ -30267,6 +31320,15 @@
     <mergeCell ref="H4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -32154,15 +33216,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AI2"/>
@@ -32176,6 +33229,15 @@
     <mergeCell ref="H4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -34063,6 +35125,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AI2"/>
@@ -34073,15 +35144,6 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="H4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
@@ -34102,8 +35164,8 @@
   </sheetPr>
   <dimension ref="A1:AT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="23" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC81" sqref="AC81"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="24" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BL59" sqref="BL59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -36012,18 +37074,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN6:AP6"/>
-    <mergeCell ref="AQ6:AT6"/>
-    <mergeCell ref="H4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ5:AT5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AM6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AM2"/>
@@ -36034,6 +37084,18 @@
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AM6"/>
+    <mergeCell ref="AN6:AP6"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="H4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AT4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -36054,5 +37116,6 @@
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>